--- a/src/test/resources/TestData/AddEmp.xlsx
+++ b/src/test/resources/TestData/AddEmp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sample\Cucumber-Flow\Urbuddi\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF0BFA1-29CB-4694-8F67-1BB90D6A7C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8F48C2-535F-49BF-B605-B648AF6929D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3DD86D8D-C121-48CC-8E95-CCFC3272E23C}"/>
   </bookViews>
@@ -120,10 +120,10 @@
     <t>First Name</t>
   </si>
   <si>
-    <t>ADI03</t>
-  </si>
-  <si>
-    <t>ramishivaka1@gmail.com</t>
+    <t>ADI12</t>
+  </si>
+  <si>
+    <t>ramishivaka12@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -497,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F737E5B-303C-40CA-841D-4249412DFEF7}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
